--- a/LiuZUnion/Doc/Objects.xlsx
+++ b/LiuZUnion/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="15" activeTab="22"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="ConflictResolve" sheetId="21" r:id="rId21"/>
     <sheet name="TechEvolution" sheetId="22" r:id="rId22"/>
     <sheet name="ConflictMatrix" sheetId="23" r:id="rId23"/>
+    <sheet name="Article" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="145621" iterate="1" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="333">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,6 +1296,26 @@
   </si>
   <si>
     <t>ConflictMatrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DicID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5200,7 +5221,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:H8"/>
+      <selection activeCell="B6" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5397,7 +5418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5554,6 +5575,197 @@
       </c>
       <c r="D7" s="1">
         <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">

--- a/LiuZUnion/Doc/Objects.xlsx
+++ b/LiuZUnion/Doc/Objects.xlsx
@@ -5613,10 +5613,13 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -5795,6 +5798,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
